--- a/output/fit_clients/fit_round_36.xlsx
+++ b/output/fit_clients/fit_round_36.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I101"/>
+  <dimension ref="A1:N101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,7 +471,32 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>sigmoid</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>UCB_mu</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>UCB_U</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>UCB_omega</t>
         </is>
       </c>
     </row>
@@ -485,25 +510,40 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="D2" t="n">
-        <v>8537431138.472623</v>
+        <v>8148486658.938383</v>
       </c>
       <c r="E2" t="n">
-        <v>0.001351815838892293</v>
+        <v>0.004212508431506714</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1457359046087245</v>
+        <v>0.1533351016325752</v>
       </c>
       <c r="G2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1363780651617658</v>
+        <v>0.2441802451178485</v>
       </c>
       <c r="I2" t="n">
-        <v>0.09261515069585381</v>
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.253132714455287</v>
+      </c>
+      <c r="L2" t="n">
+        <v>8.928033158124846</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.7659647440768667</v>
+      </c>
+      <c r="N2" t="n">
+        <v>6.391261723412487</v>
       </c>
     </row>
     <row r="3">
@@ -516,25 +556,40 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>555</v>
+        <v>601</v>
       </c>
       <c r="D3" t="n">
-        <v>5656849574.996913</v>
+        <v>11511900102.8348</v>
       </c>
       <c r="E3" t="n">
-        <v>0.004891641142873002</v>
+        <v>0.004729482473230561</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2569913572433634</v>
+        <v>0.1367500912913882</v>
       </c>
       <c r="G3" t="b">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.4767376779995625</v>
+        <v>0.1964869940879798</v>
       </c>
       <c r="I3" t="n">
-        <v>1.398396045056995</v>
+        <v>16</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.5145040885465064</v>
+      </c>
+      <c r="L3" t="n">
+        <v>2.683229199463896</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.5137759775793486</v>
+      </c>
+      <c r="N3" t="n">
+        <v>7.592290352123075</v>
       </c>
     </row>
     <row r="4">
@@ -547,25 +602,40 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>567</v>
+        <v>500</v>
       </c>
       <c r="D4" t="n">
-        <v>7610980699.457541</v>
+        <v>13065603294.62463</v>
       </c>
       <c r="E4" t="n">
-        <v>0.002660625459979935</v>
+        <v>0.004673846907399744</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1951383387565093</v>
+        <v>0.1002399177800559</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2875130698882636</v>
+        <v>0.0914952675470723</v>
       </c>
       <c r="I4" t="n">
-        <v>1.42863163522039</v>
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.1290021809797127</v>
+      </c>
+      <c r="L4" t="n">
+        <v>8.803902624649272</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.7775861652483151</v>
+      </c>
+      <c r="N4" t="n">
+        <v>6.74782068031703</v>
       </c>
     </row>
     <row r="5">
@@ -578,25 +648,40 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>554</v>
+        <v>411</v>
       </c>
       <c r="D5" t="n">
-        <v>10174977805.11989</v>
+        <v>15727678909.25113</v>
       </c>
       <c r="E5" t="n">
-        <v>0.004016583157079982</v>
+        <v>0.001223787715423529</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1426186953714836</v>
+        <v>0.06845061475452392</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1268417044351961</v>
+        <v>7.927334077954054e-05</v>
       </c>
       <c r="I5" t="n">
-        <v>1.395876412543379</v>
+        <v>13</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.1108747270604266</v>
+      </c>
+      <c r="L5" t="n">
+        <v>2.516859216229342</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.2950943949638835</v>
+      </c>
+      <c r="N5" t="n">
+        <v>3.385028683048328</v>
       </c>
     </row>
     <row r="6">
@@ -609,25 +694,40 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>467</v>
+        <v>514</v>
       </c>
       <c r="D6" t="n">
-        <v>7451659535.675684</v>
+        <v>3849742465.366643</v>
       </c>
       <c r="E6" t="n">
-        <v>0.004860331894281408</v>
+        <v>0.001582336081445277</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1641587520395322</v>
+        <v>0.3497289681354762</v>
       </c>
       <c r="G6" t="b">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1927383879183626</v>
+        <v>0.8089469702002143</v>
       </c>
       <c r="I6" t="n">
-        <v>1.176668383858769</v>
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.2051108162877704</v>
+      </c>
+      <c r="L6" t="n">
+        <v>8.88001125995733</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.7844662480792863</v>
+      </c>
+      <c r="N6" t="n">
+        <v>6.809313701628396</v>
       </c>
     </row>
     <row r="7">
@@ -640,25 +740,40 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>449</v>
+        <v>612</v>
       </c>
       <c r="D7" t="n">
-        <v>4605479144.737604</v>
+        <v>9494012768.830463</v>
       </c>
       <c r="E7" t="n">
-        <v>0.00476053254405719</v>
+        <v>0.001883725710957506</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2553710641256217</v>
+        <v>0.1688502763829205</v>
       </c>
       <c r="G7" t="b">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.4717807763360605</v>
+        <v>0.2887969869176933</v>
       </c>
       <c r="I7" t="n">
-        <v>0.06489858280326942</v>
+        <v>15</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.9875763561843885</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.3937485671146382</v>
+      </c>
+      <c r="L7" t="n">
+        <v>2.633598230337274</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.8968699250169532</v>
+      </c>
+      <c r="N7" t="n">
+        <v>15.30380027000179</v>
       </c>
     </row>
     <row r="8">
@@ -671,25 +786,40 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>584</v>
+        <v>460</v>
       </c>
       <c r="D8" t="n">
-        <v>7687411248.771668</v>
+        <v>10883550533.88167</v>
       </c>
       <c r="E8" t="n">
-        <v>0.002545926378417389</v>
+        <v>0.00141942319606712</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1989907539087917</v>
+        <v>0.110710139696504</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2992986183595576</v>
+        <v>0.1216043185471485</v>
       </c>
       <c r="I8" t="n">
-        <v>1.471465387951865</v>
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.1093358048275254</v>
+      </c>
+      <c r="L8" t="n">
+        <v>8.784236248497084</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.7571029244765838</v>
+      </c>
+      <c r="N8" t="n">
+        <v>6.357822241034592</v>
       </c>
     </row>
     <row r="9">
@@ -702,25 +832,40 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>444</v>
+        <v>509</v>
       </c>
       <c r="D9" t="n">
-        <v>4436646697.310131</v>
+        <v>8124402768.441394</v>
       </c>
       <c r="E9" t="n">
-        <v>0.004667730463380518</v>
+        <v>0.003457409428442477</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2621369785214392</v>
+        <v>0.164106771660679</v>
       </c>
       <c r="G9" t="b">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.4924794832283567</v>
+        <v>0.2751561656685556</v>
       </c>
       <c r="I9" t="n">
-        <v>1.118716836045596</v>
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.4145510261416697</v>
+      </c>
+      <c r="L9" t="n">
+        <v>9.089451469811229</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.7820252707235472</v>
+      </c>
+      <c r="N9" t="n">
+        <v>6.551053944659715</v>
       </c>
     </row>
     <row r="10">
@@ -733,25 +878,40 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>553</v>
+        <v>522</v>
       </c>
       <c r="D10" t="n">
-        <v>5458946716.234544</v>
+        <v>13699597317.55647</v>
       </c>
       <c r="E10" t="n">
-        <v>0.001195970560627643</v>
+        <v>0.002444318691671547</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2653483804288088</v>
+        <v>0.09980742851818962</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.502304004040369</v>
+        <v>0.0902515650404368</v>
       </c>
       <c r="I10" t="n">
-        <v>1.393356780029763</v>
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.08828996757149382</v>
+      </c>
+      <c r="L10" t="n">
+        <v>8.763190411241053</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.7883353410957491</v>
+      </c>
+      <c r="N10" t="n">
+        <v>7.003516410673928</v>
       </c>
     </row>
     <row r="11">
@@ -764,25 +924,40 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>411</v>
+        <v>579</v>
       </c>
       <c r="D11" t="n">
-        <v>4776348638.720733</v>
+        <v>9881035646.792995</v>
       </c>
       <c r="E11" t="n">
-        <v>0.002341589887010742</v>
+        <v>0.003264219028667802</v>
       </c>
       <c r="F11" t="n">
-        <v>0.2253958769409139</v>
+        <v>0.1534886487827052</v>
       </c>
       <c r="G11" t="b">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0.3800788159977035</v>
+        <v>0.2446217982206454</v>
       </c>
       <c r="I11" t="n">
-        <v>0.07027871923382721</v>
+        <v>14</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.9859099657184384</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.4667234157319035</v>
+      </c>
+      <c r="L11" t="n">
+        <v>2.785188081773671</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.8834976701106396</v>
+      </c>
+      <c r="N11" t="n">
+        <v>14.88476532043912</v>
       </c>
     </row>
     <row r="12">
@@ -795,25 +970,40 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="D12" t="n">
-        <v>7289079077.002749</v>
+        <v>5605601098.585189</v>
       </c>
       <c r="E12" t="n">
-        <v>0.001210634708075548</v>
+        <v>0.001077080645217143</v>
       </c>
       <c r="F12" t="n">
-        <v>0.173929346438276</v>
+        <v>0.2270984891024981</v>
       </c>
       <c r="G12" t="b">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2226291990921081</v>
+        <v>0.4563004478216057</v>
       </c>
       <c r="I12" t="n">
-        <v>1.219502136590244</v>
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.1607638034554517</v>
+      </c>
+      <c r="L12" t="n">
+        <v>8.83566424712501</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.770561032237651</v>
+      </c>
+      <c r="N12" t="n">
+        <v>6.575556397628011</v>
       </c>
     </row>
     <row r="13">
@@ -826,25 +1016,40 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>473</v>
+        <v>547</v>
       </c>
       <c r="D13" t="n">
-        <v>8304530693.389215</v>
+        <v>4844357439.975347</v>
       </c>
       <c r="E13" t="n">
-        <v>0.003799180704273011</v>
+        <v>0.004896683613022226</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1491922320169492</v>
+        <v>0.2957680864290831</v>
       </c>
       <c r="G13" t="b">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1469518773268855</v>
+        <v>0.653772519049896</v>
       </c>
       <c r="I13" t="n">
-        <v>0.06328582995588414</v>
+        <v>15</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.9900679822331985</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.2717894375169693</v>
+      </c>
+      <c r="L13" t="n">
+        <v>2.511639100739605</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.8492705109695859</v>
+      </c>
+      <c r="N13" t="n">
+        <v>14.47377111865211</v>
       </c>
     </row>
     <row r="14">
@@ -857,25 +1062,40 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>529</v>
+        <v>615</v>
       </c>
       <c r="D14" t="n">
-        <v>9341770496.322857</v>
+        <v>4789079417.737143</v>
       </c>
       <c r="E14" t="n">
-        <v>0.002083211896376473</v>
+        <v>0.002813756704495657</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1483291963279796</v>
+        <v>0.3363746368526851</v>
       </c>
       <c r="G14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1443116247729045</v>
+        <v>0.7705441316668863</v>
       </c>
       <c r="I14" t="n">
-        <v>1.332885599702974</v>
+        <v>16</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.9886153277984958</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.3619208235502501</v>
+      </c>
+      <c r="L14" t="n">
+        <v>2.53064593446764</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.8886022384463889</v>
+      </c>
+      <c r="N14" t="n">
+        <v>15.24139883446014</v>
       </c>
     </row>
     <row r="15">
@@ -888,25 +1108,40 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>561</v>
+        <v>375</v>
       </c>
       <c r="D15" t="n">
-        <v>5275078724.683051</v>
+        <v>6593485470.146941</v>
       </c>
       <c r="E15" t="n">
-        <v>0.003835257473186202</v>
+        <v>0.001760728831000593</v>
       </c>
       <c r="F15" t="n">
-        <v>0.2785698312186407</v>
+        <v>0.148976024053953</v>
       </c>
       <c r="G15" t="b">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.5427518901027203</v>
+        <v>0.2316449149046614</v>
       </c>
       <c r="I15" t="n">
-        <v>1.413513840138692</v>
+        <v>2</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.1058441099141851</v>
+      </c>
+      <c r="L15" t="n">
+        <v>6.239925039751119</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.6894619900368261</v>
+      </c>
+      <c r="N15" t="n">
+        <v>7.549314760985402</v>
       </c>
     </row>
     <row r="16">
@@ -919,25 +1154,40 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>597</v>
+        <v>509</v>
       </c>
       <c r="D16" t="n">
-        <v>5209738497.484261</v>
+        <v>5984716784.820488</v>
       </c>
       <c r="E16" t="n">
-        <v>0.001409256946904231</v>
+        <v>0.004064863544109287</v>
       </c>
       <c r="F16" t="n">
-        <v>0.3001639776651236</v>
+        <v>0.2227790483555842</v>
       </c>
       <c r="G16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>0.6088140484063149</v>
+        <v>0.4438791006163157</v>
       </c>
       <c r="I16" t="n">
-        <v>1.504220610628876</v>
+        <v>11</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.4056425542434706</v>
+      </c>
+      <c r="L16" t="n">
+        <v>3.021223451092517</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.5801419008506111</v>
+      </c>
+      <c r="N16" t="n">
+        <v>8.581614565919706</v>
       </c>
     </row>
     <row r="17">
@@ -950,25 +1200,40 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>443</v>
+        <v>548</v>
       </c>
       <c r="D17" t="n">
-        <v>8441549533.452177</v>
+        <v>8634983316.362282</v>
       </c>
       <c r="E17" t="n">
-        <v>0.002632533958853625</v>
+        <v>0.003703471732622985</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1374617024281628</v>
+        <v>0.166233757195574</v>
       </c>
       <c r="G17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1110651102995356</v>
+        <v>0.2812727042154582</v>
       </c>
       <c r="I17" t="n">
-        <v>0.07580082686245966</v>
+        <v>1</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.4100367184014016</v>
+      </c>
+      <c r="L17" t="n">
+        <v>9.084937162070961</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.8006134053032802</v>
+      </c>
+      <c r="N17" t="n">
+        <v>6.927330943994644</v>
       </c>
     </row>
     <row r="18">
@@ -981,25 +1246,40 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>466</v>
+        <v>419</v>
       </c>
       <c r="D18" t="n">
-        <v>10814957692.84858</v>
+        <v>9462866648.365208</v>
       </c>
       <c r="E18" t="n">
-        <v>0.002530237705619667</v>
+        <v>0.00268396840055083</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1128655122531962</v>
+        <v>0.1159822335855918</v>
       </c>
       <c r="G18" t="b">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.03581891276952779</v>
+        <v>0.1367651952745433</v>
       </c>
       <c r="I18" t="n">
-        <v>1.174148751345153</v>
+        <v>1</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.1607979897498079</v>
+      </c>
+      <c r="L18" t="n">
+        <v>8.835698433419367</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.7346717607256604</v>
+      </c>
+      <c r="N18" t="n">
+        <v>5.857736781093841</v>
       </c>
     </row>
     <row r="19">
@@ -1012,25 +1292,40 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D19" t="n">
-        <v>9299526906.674994</v>
+        <v>12114658241.26922</v>
       </c>
       <c r="E19" t="n">
-        <v>0.003725842327384357</v>
+        <v>0.004381170488033023</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1413979219798988</v>
+        <v>0.1081082911227702</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.1231070384113474</v>
+        <v>0.114122223895653</v>
       </c>
       <c r="I19" t="n">
-        <v>1.264855521835336</v>
+        <v>1</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.5012376349196741</v>
+      </c>
+      <c r="L19" t="n">
+        <v>9.176138078589233</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.7775861652483151</v>
+      </c>
+      <c r="N19" t="n">
+        <v>6.375585226377069</v>
       </c>
     </row>
     <row r="20">
@@ -1043,25 +1338,40 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>585</v>
+        <v>565</v>
       </c>
       <c r="D20" t="n">
-        <v>9533025493.561504</v>
+        <v>7219137398.620463</v>
       </c>
       <c r="E20" t="n">
-        <v>0.002579420329773804</v>
+        <v>0.00339823203015052</v>
       </c>
       <c r="F20" t="n">
-        <v>0.160740485907116</v>
+        <v>0.2050044580510147</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1822810151797297</v>
+        <v>0.3927649933646811</v>
       </c>
       <c r="I20" t="n">
-        <v>1.473985020465481</v>
+        <v>1</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.74589236555726</v>
+      </c>
+      <c r="L20" t="n">
+        <v>9.420792809226819</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.8084097556983609</v>
+      </c>
+      <c r="N20" t="n">
+        <v>6.747402304740399</v>
       </c>
     </row>
     <row r="21">
@@ -1074,25 +1384,40 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>540</v>
+        <v>377</v>
       </c>
       <c r="D21" t="n">
-        <v>8546391464.916347</v>
+        <v>9954186507.053883</v>
       </c>
       <c r="E21" t="n">
-        <v>0.004981914292164171</v>
+        <v>0.002392255091252635</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1655050094307662</v>
+        <v>0.0992054980384601</v>
       </c>
       <c r="G21" t="b">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.1968569424126327</v>
+        <v>0.08852060311266663</v>
       </c>
       <c r="I21" t="n">
-        <v>1.360601557352752</v>
+        <v>7</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.1255351042622175</v>
+      </c>
+      <c r="L21" t="n">
+        <v>3.404339278861293</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.5688130000946301</v>
+      </c>
+      <c r="N21" t="n">
+        <v>7.971920723031308</v>
       </c>
     </row>
     <row r="22">
@@ -1105,25 +1430,40 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>548</v>
+        <v>604</v>
       </c>
       <c r="D22" t="n">
-        <v>10960838553.12639</v>
+        <v>8562045514.187259</v>
       </c>
       <c r="E22" t="n">
-        <v>0.003435409090929079</v>
+        <v>0.004228785649608674</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1309594802480299</v>
+        <v>0.1847819609669734</v>
       </c>
       <c r="G22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" t="n">
-        <v>0.09117310706367496</v>
+        <v>0.3346114794362155</v>
       </c>
       <c r="I22" t="n">
-        <v>1.380758617461681</v>
+        <v>18</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.9903262581803102</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.3695490404235906</v>
+      </c>
+      <c r="L22" t="n">
+        <v>2.414242683702569</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.8583021741135912</v>
+      </c>
+      <c r="N22" t="n">
+        <v>14.75180079856926</v>
       </c>
     </row>
     <row r="23">
@@ -1136,25 +1476,40 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>478</v>
+        <v>538</v>
       </c>
       <c r="D23" t="n">
-        <v>8837098212.543812</v>
+        <v>10183271012.84706</v>
       </c>
       <c r="E23" t="n">
-        <v>0.003950282358147591</v>
+        <v>0.00442692559926159</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1416832075287737</v>
+        <v>0.1383869503445537</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1239798017381226</v>
+        <v>0.2011940836898034</v>
       </c>
       <c r="I23" t="n">
-        <v>1.204384341508547</v>
+        <v>1</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.4719053501680949</v>
+      </c>
+      <c r="L23" t="n">
+        <v>9.146805793837654</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.7959432892540428</v>
+      </c>
+      <c r="N23" t="n">
+        <v>6.772059991243202</v>
       </c>
     </row>
     <row r="24">
@@ -1167,25 +1522,40 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>525</v>
+        <v>569</v>
       </c>
       <c r="D24" t="n">
-        <v>10211674455.98588</v>
+        <v>7313032557.301266</v>
       </c>
       <c r="E24" t="n">
-        <v>0.002757449512240559</v>
+        <v>0.004152234714061027</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1346674099264785</v>
+        <v>0.2038050423434756</v>
       </c>
       <c r="G24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" t="n">
-        <v>0.1025166365707728</v>
+        <v>0.3893158526495397</v>
       </c>
       <c r="I24" t="n">
-        <v>1.322807069648509</v>
+        <v>14</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.9902639438912253</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.3168988394363228</v>
+      </c>
+      <c r="L24" t="n">
+        <v>2.63536350547809</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.8780164722606992</v>
+      </c>
+      <c r="N24" t="n">
+        <v>14.92496593973589</v>
       </c>
     </row>
     <row r="25">
@@ -1198,25 +1568,40 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>505</v>
+        <v>493</v>
       </c>
       <c r="D25" t="n">
-        <v>4779741315.994946</v>
+        <v>7900532105.726402</v>
       </c>
       <c r="E25" t="n">
-        <v>0.003374091722585616</v>
+        <v>0.003735397575031725</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2767496947111769</v>
+        <v>0.1634521893865866</v>
       </c>
       <c r="G25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.5371836150894788</v>
+        <v>0.2732737938113335</v>
       </c>
       <c r="I25" t="n">
-        <v>0.1015428319006297</v>
+        <v>1</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.332831625603894</v>
+      </c>
+      <c r="L25" t="n">
+        <v>9.007732069273453</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.7740921939837287</v>
+      </c>
+      <c r="N25" t="n">
+        <v>6.474111810401121</v>
       </c>
     </row>
     <row r="26">
@@ -1229,25 +1614,40 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>418</v>
+        <v>591</v>
       </c>
       <c r="D26" t="n">
-        <v>6370928241.294933</v>
+        <v>5434848564.184316</v>
       </c>
       <c r="E26" t="n">
-        <v>0.001619619687924144</v>
+        <v>0.003346233460880628</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1718595750149987</v>
+        <v>0.2848394894021006</v>
       </c>
       <c r="G26" t="b">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.2162972253900833</v>
+        <v>0.6223453260189842</v>
       </c>
       <c r="I26" t="n">
-        <v>1.053206390691575</v>
+        <v>15</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.3282422968227051</v>
+      </c>
+      <c r="L26" t="n">
+        <v>2.56809196004534</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.5386939686932605</v>
+      </c>
+      <c r="N26" t="n">
+        <v>8.20578741381987</v>
       </c>
     </row>
     <row r="27">
@@ -1260,25 +1660,40 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>559</v>
+        <v>587</v>
       </c>
       <c r="D27" t="n">
-        <v>8721489052.64694</v>
+        <v>4871317938.181483</v>
       </c>
       <c r="E27" t="n">
-        <v>0.001976772246546785</v>
+        <v>0.00401423750995453</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1678886485049945</v>
+        <v>0.3156398226337073</v>
       </c>
       <c r="G27" t="b">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.2041491195890059</v>
+        <v>0.7109173554840852</v>
       </c>
       <c r="I27" t="n">
-        <v>1.40847457511146</v>
+        <v>20</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.3283305654000112</v>
+      </c>
+      <c r="L27" t="n">
+        <v>2.268097274408833</v>
+      </c>
+      <c r="M27" t="n">
+        <v>-0.2857815567540369</v>
+      </c>
+      <c r="N27" t="n">
+        <v>-7.98372840948957</v>
       </c>
     </row>
     <row r="28">
@@ -1291,25 +1706,40 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>440</v>
+        <v>578</v>
       </c>
       <c r="D28" t="n">
-        <v>3811846478.907195</v>
+        <v>6042427841.492954</v>
       </c>
       <c r="E28" t="n">
-        <v>0.004708951780596967</v>
+        <v>0.003820774004081493</v>
       </c>
       <c r="F28" t="n">
-        <v>0.3023551988196585</v>
+        <v>0.2505627637956072</v>
       </c>
       <c r="G28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28" t="n">
-        <v>0.615517568693529</v>
+        <v>0.5237762901726423</v>
       </c>
       <c r="I28" t="n">
-        <v>1.108638305991131</v>
+        <v>14</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.353521968595952</v>
+      </c>
+      <c r="L28" t="n">
+        <v>2.67198663463772</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.5579696434281376</v>
+      </c>
+      <c r="N28" t="n">
+        <v>8.487406233925032</v>
       </c>
     </row>
     <row r="29">
@@ -1322,25 +1752,40 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>521</v>
+        <v>618</v>
       </c>
       <c r="D29" t="n">
-        <v>4932721341.088812</v>
+        <v>4498751752.842787</v>
       </c>
       <c r="E29" t="n">
-        <v>0.003648709149239378</v>
+        <v>0.004965611296417732</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2766631430468695</v>
+        <v>0.3598293724424962</v>
       </c>
       <c r="G29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29" t="n">
-        <v>0.5369188308451428</v>
+        <v>0.8379925425699568</v>
       </c>
       <c r="I29" t="n">
-        <v>1.312728539594044</v>
+        <v>17</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.9888241638836927</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.341489940930624</v>
+      </c>
+      <c r="L29" t="n">
+        <v>2.445462342163983</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.8797739529168744</v>
+      </c>
+      <c r="N29" t="n">
+        <v>15.15001671617351</v>
       </c>
     </row>
     <row r="30">
@@ -1353,25 +1798,40 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>588</v>
+        <v>477</v>
       </c>
       <c r="D30" t="n">
-        <v>6524180299.437959</v>
+        <v>11967895162.22669</v>
       </c>
       <c r="E30" t="n">
-        <v>0.003692672530015469</v>
+        <v>0.004754256667193547</v>
       </c>
       <c r="F30" t="n">
-        <v>0.2360758362445447</v>
+        <v>0.104400064761892</v>
       </c>
       <c r="G30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.4127516129494588</v>
+        <v>0.10345853620016</v>
       </c>
       <c r="I30" t="n">
-        <v>0.06996601301254178</v>
+        <v>1</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.08891684913212877</v>
+      </c>
+      <c r="L30" t="n">
+        <v>8.763817292801688</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.7659647440768667</v>
+      </c>
+      <c r="N30" t="n">
+        <v>6.555477588735645</v>
       </c>
     </row>
     <row r="31">
@@ -1384,25 +1844,40 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>562</v>
+        <v>375</v>
       </c>
       <c r="D31" t="n">
-        <v>9366959539.79834</v>
+        <v>11797635348.50451</v>
       </c>
       <c r="E31" t="n">
-        <v>0.004953000027454639</v>
+        <v>0.00204219693722102</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1571584860322448</v>
+        <v>0.08326001109404643</v>
       </c>
       <c r="G31" t="b">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0.1713227379742079</v>
+        <v>0.04266641936550206</v>
       </c>
       <c r="I31" t="n">
-        <v>1.416033472652309</v>
+        <v>4</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.266000698078337</v>
+      </c>
+      <c r="L31" t="n">
+        <v>4.603450919913117</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.6467751433615182</v>
+      </c>
+      <c r="N31" t="n">
+        <v>8.332051947317247</v>
       </c>
     </row>
     <row r="32">
@@ -1415,25 +1890,40 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>448</v>
+        <v>397</v>
       </c>
       <c r="D32" t="n">
-        <v>8828118689.333466</v>
+        <v>4080314809.782561</v>
       </c>
       <c r="E32" t="n">
-        <v>0.002302539363220608</v>
+        <v>0.003322977913475706</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1329260243655151</v>
+        <v>0.2548572545203727</v>
       </c>
       <c r="G32" t="b">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.0971892813599029</v>
+        <v>0.536125888995203</v>
       </c>
       <c r="I32" t="n">
-        <v>1.128795366100061</v>
+        <v>8</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.1469596024844155</v>
+      </c>
+      <c r="L32" t="n">
+        <v>3.214000067402883</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.5580901143628668</v>
+      </c>
+      <c r="N32" t="n">
+        <v>7.947802219854453</v>
       </c>
     </row>
     <row r="33">
@@ -1446,25 +1936,40 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>419</v>
+        <v>519</v>
       </c>
       <c r="D33" t="n">
-        <v>6981307685.328628</v>
+        <v>12836048013.01299</v>
       </c>
       <c r="E33" t="n">
-        <v>0.003042729667140085</v>
+        <v>0.003449276237456637</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1572090014463152</v>
+        <v>0.1059098102953336</v>
       </c>
       <c r="G33" t="b">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.1714772778764616</v>
+        <v>0.1078000874706371</v>
       </c>
       <c r="I33" t="n">
-        <v>1.055726023205191</v>
+        <v>1</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.1980929324883558</v>
+      </c>
+      <c r="L33" t="n">
+        <v>8.872993376157915</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.7868896302753947</v>
+      </c>
+      <c r="N33" t="n">
+        <v>6.86479922934998</v>
       </c>
     </row>
     <row r="34">
@@ -1477,25 +1982,40 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>537</v>
+        <v>424</v>
       </c>
       <c r="D34" t="n">
-        <v>5893097428.246705</v>
+        <v>7074047614.518053</v>
       </c>
       <c r="E34" t="n">
-        <v>0.00168172816104123</v>
+        <v>0.004010447019284172</v>
       </c>
       <c r="F34" t="n">
-        <v>0.238688134232746</v>
+        <v>0.156999418228494</v>
       </c>
       <c r="G34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34" t="n">
-        <v>0.4207433177228063</v>
+        <v>0.2547176621991067</v>
       </c>
       <c r="I34" t="n">
-        <v>1.353042659811903</v>
+        <v>11</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.9866048125864106</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.2539565791925346</v>
+      </c>
+      <c r="L34" t="n">
+        <v>2.869537476041581</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.7944294834426662</v>
+      </c>
+      <c r="N34" t="n">
+        <v>13.01905219281174</v>
       </c>
     </row>
     <row r="35">
@@ -1508,25 +2028,40 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>474</v>
+        <v>611</v>
       </c>
       <c r="D35" t="n">
-        <v>5489755874.044386</v>
+        <v>10981503144.22397</v>
       </c>
       <c r="E35" t="n">
-        <v>0.002295289182122432</v>
+        <v>0.00487487922544918</v>
       </c>
       <c r="F35" t="n">
-        <v>0.226165040574983</v>
+        <v>0.1457402751682314</v>
       </c>
       <c r="G35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.3824318893123248</v>
+        <v>0.22233992318614</v>
       </c>
       <c r="I35" t="n">
-        <v>0.06758136988914107</v>
+        <v>16</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.4105605781073672</v>
+      </c>
+      <c r="L35" t="n">
+        <v>2.579285689024757</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.5264645881297492</v>
+      </c>
+      <c r="N35" t="n">
+        <v>7.950006073570226</v>
       </c>
     </row>
     <row r="36">
@@ -1539,25 +2074,40 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>590</v>
+        <v>463</v>
       </c>
       <c r="D36" t="n">
-        <v>6879005122.747913</v>
+        <v>13220471611.41983</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0016731837889433</v>
+        <v>0.004396834918372778</v>
       </c>
       <c r="F36" t="n">
-        <v>0.2246604083618784</v>
+        <v>0.0917348189721465</v>
       </c>
       <c r="G36" t="b">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.3778288246949227</v>
+        <v>0.06703728988322319</v>
       </c>
       <c r="I36" t="n">
-        <v>1.486583183033562</v>
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.1447429700792935</v>
+      </c>
+      <c r="L36" t="n">
+        <v>8.819643413748853</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.7586843841640986</v>
+      </c>
+      <c r="N36" t="n">
+        <v>6.354044269533118</v>
       </c>
     </row>
     <row r="37">
@@ -1570,25 +2120,40 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>459</v>
+        <v>378</v>
       </c>
       <c r="D37" t="n">
-        <v>4391367390.380976</v>
+        <v>5567995246.429639</v>
       </c>
       <c r="E37" t="n">
-        <v>0.003464404985076307</v>
+        <v>0.003463822825190348</v>
       </c>
       <c r="F37" t="n">
-        <v>0.2737871608359541</v>
+        <v>0.177825119487108</v>
       </c>
       <c r="G37" t="b">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.5281204468679532</v>
+        <v>0.3146058007993894</v>
       </c>
       <c r="I37" t="n">
-        <v>1.156511323749839</v>
+        <v>6</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.2619616085761116</v>
+      </c>
+      <c r="L37" t="n">
+        <v>3.803474884648415</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.5990132184708827</v>
+      </c>
+      <c r="N37" t="n">
+        <v>8.176789484769238</v>
       </c>
     </row>
     <row r="38">
@@ -1601,25 +2166,40 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>409</v>
+        <v>481</v>
       </c>
       <c r="D38" t="n">
-        <v>7461165981.224275</v>
+        <v>9514886779.452253</v>
       </c>
       <c r="E38" t="n">
-        <v>0.001880144056847697</v>
+        <v>0.002473299080977689</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1435875455251847</v>
+        <v>0.1324163512613579</v>
       </c>
       <c r="G38" t="b">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.1298056711928028</v>
+        <v>0.1840245266611654</v>
       </c>
       <c r="I38" t="n">
-        <v>1.030529698069029</v>
+        <v>1</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.185263249270528</v>
+      </c>
+      <c r="L38" t="n">
+        <v>8.860163692940088</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.7680154649968647</v>
+      </c>
+      <c r="N38" t="n">
+        <v>6.500145606997206</v>
       </c>
     </row>
     <row r="39">
@@ -1632,25 +2212,40 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>445</v>
+        <v>573</v>
       </c>
       <c r="D39" t="n">
-        <v>6779689182.718242</v>
+        <v>8861491908.931963</v>
       </c>
       <c r="E39" t="n">
-        <v>0.003428804882655717</v>
+        <v>0.003401184631037176</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1719294968523401</v>
+        <v>0.1693744671241141</v>
       </c>
       <c r="G39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0.2165111346315888</v>
+        <v>0.290304393913105</v>
       </c>
       <c r="I39" t="n">
-        <v>0.0907057363249912</v>
+        <v>1</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.8796055806886142</v>
+      </c>
+      <c r="L39" t="n">
+        <v>9.554506024358172</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.8120186896904181</v>
+      </c>
+      <c r="N39" t="n">
+        <v>6.685867769450191</v>
       </c>
     </row>
     <row r="40">
@@ -1663,25 +2258,40 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D40" t="n">
-        <v>9163529263.949594</v>
+        <v>9652703230.270176</v>
       </c>
       <c r="E40" t="n">
-        <v>0.003944419583593229</v>
+        <v>0.002234513778143185</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1520719190020219</v>
+        <v>0.1440939451694994</v>
       </c>
       <c r="G40" t="b">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.155761595180015</v>
+        <v>0.2176055981364572</v>
       </c>
       <c r="I40" t="n">
-        <v>1.340444497243822</v>
+        <v>1</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.4009578770091899</v>
+      </c>
+      <c r="L40" t="n">
+        <v>9.07585832067875</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.7926357663536987</v>
+      </c>
+      <c r="N40" t="n">
+        <v>6.776857006395224</v>
       </c>
     </row>
     <row r="41">
@@ -1694,25 +2304,40 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>489</v>
+        <v>448</v>
       </c>
       <c r="D41" t="n">
-        <v>6454420349.119363</v>
+        <v>9361190130.783405</v>
       </c>
       <c r="E41" t="n">
-        <v>0.001532106934649001</v>
+        <v>0.00219550369589986</v>
       </c>
       <c r="F41" t="n">
-        <v>0.198450308581895</v>
+        <v>0.1253565736413255</v>
       </c>
       <c r="G41" t="b">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0.2976452543412867</v>
+        <v>0.1637228361996837</v>
       </c>
       <c r="I41" t="n">
-        <v>1.232100299158325</v>
+        <v>1</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.2505881178236177</v>
+      </c>
+      <c r="L41" t="n">
+        <v>8.925488561493177</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.7506986916661615</v>
+      </c>
+      <c r="N41" t="n">
+        <v>6.088485271830054</v>
       </c>
     </row>
     <row r="42">
@@ -1725,25 +2350,40 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>465</v>
+        <v>432</v>
       </c>
       <c r="D42" t="n">
-        <v>5578577200.024686</v>
+        <v>3784972657.06389</v>
       </c>
       <c r="E42" t="n">
-        <v>0.001144279356828981</v>
+        <v>0.004753020793672395</v>
       </c>
       <c r="F42" t="n">
-        <v>0.2183381723201052</v>
+        <v>0.2989655626410247</v>
       </c>
       <c r="G42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0.358487446268162</v>
+        <v>0.6629674506478253</v>
       </c>
       <c r="I42" t="n">
-        <v>0.07737247330450002</v>
+        <v>1</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.2019701943007429</v>
+      </c>
+      <c r="L42" t="n">
+        <v>8.876870637970303</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.741956237777882</v>
+      </c>
+      <c r="N42" t="n">
+        <v>5.962254117587337</v>
       </c>
     </row>
     <row r="43">
@@ -1756,25 +2396,40 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>487</v>
+        <v>378</v>
       </c>
       <c r="D43" t="n">
-        <v>7262363688.190761</v>
+        <v>12447229847.74066</v>
       </c>
       <c r="E43" t="n">
-        <v>0.004111428154496694</v>
+        <v>0.003894510149731226</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1756512045898097</v>
+        <v>0.07954616666612949</v>
       </c>
       <c r="G43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H43" t="n">
-        <v>0.2278968148353311</v>
+        <v>0.03198657588378587</v>
       </c>
       <c r="I43" t="n">
-        <v>1.227061034131093</v>
+        <v>6</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.98687739563407</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.1667992151247234</v>
+      </c>
+      <c r="L43" t="n">
+        <v>3.708312491197027</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.8218216410790526</v>
+      </c>
+      <c r="N43" t="n">
+        <v>12.72812033038403</v>
       </c>
     </row>
     <row r="44">
@@ -1787,25 +2442,40 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>575</v>
+        <v>589</v>
       </c>
       <c r="D44" t="n">
-        <v>3825017892.426452</v>
+        <v>6421385859.685875</v>
       </c>
       <c r="E44" t="n">
-        <v>0.001635809515497397</v>
+        <v>0.00239899485333726</v>
       </c>
       <c r="F44" t="n">
-        <v>0.3937626678772355</v>
+        <v>0.2402628877491988</v>
       </c>
       <c r="G44" t="b">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0.8951569934783002</v>
+        <v>0.4941571000876074</v>
       </c>
       <c r="I44" t="n">
-        <v>1.448788695329319</v>
+        <v>22</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.3380179629774187</v>
+      </c>
+      <c r="L44" t="n">
+        <v>2.187512951881371</v>
+      </c>
+      <c r="M44" t="n">
+        <v>-0.4485619113566551</v>
+      </c>
+      <c r="N44" t="n">
+        <v>-11.15875117901447</v>
       </c>
     </row>
     <row r="45">
@@ -1818,25 +2488,40 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>598</v>
+        <v>376</v>
       </c>
       <c r="D45" t="n">
-        <v>4328438439.968457</v>
+        <v>9975110458.073538</v>
       </c>
       <c r="E45" t="n">
-        <v>0.001034802239271949</v>
+        <v>0.001818596851300997</v>
       </c>
       <c r="F45" t="n">
-        <v>0.3618846015080244</v>
+        <v>0.09873481042035587</v>
       </c>
       <c r="G45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H45" t="n">
-        <v>0.7976336265735473</v>
+        <v>0.0871670541992151</v>
       </c>
       <c r="I45" t="n">
-        <v>1.506740243142492</v>
+        <v>7</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.9855761300918418</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.1504495889455545</v>
+      </c>
+      <c r="L45" t="n">
+        <v>3.429253763544631</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.8061538285190188</v>
+      </c>
+      <c r="N45" t="n">
+        <v>12.69382280683575</v>
       </c>
     </row>
     <row r="46">
@@ -1849,25 +2534,40 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>410</v>
+        <v>594</v>
       </c>
       <c r="D46" t="n">
-        <v>7512936154.464224</v>
+        <v>12189319270.21239</v>
       </c>
       <c r="E46" t="n">
-        <v>0.002323942061119299</v>
+        <v>0.001716169518917231</v>
       </c>
       <c r="F46" t="n">
-        <v>0.142946762480053</v>
+        <v>0.1276459846123047</v>
       </c>
       <c r="G46" t="b">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0.1278453477750348</v>
+        <v>0.1703064589954008</v>
       </c>
       <c r="I46" t="n">
-        <v>1.033049330582645</v>
+        <v>15</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.9884522969343472</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.3064313350750244</v>
+      </c>
+      <c r="L46" t="n">
+        <v>2.54628099829766</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.8843857695341291</v>
+      </c>
+      <c r="N46" t="n">
+        <v>15.14143439238492</v>
       </c>
     </row>
     <row r="47">
@@ -1880,25 +2580,40 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>475</v>
+        <v>419</v>
       </c>
       <c r="D47" t="n">
-        <v>5754248110.314137</v>
+        <v>6228685695.026058</v>
       </c>
       <c r="E47" t="n">
-        <v>0.004545676530028684</v>
+        <v>0.003104837579760703</v>
       </c>
       <c r="F47" t="n">
-        <v>0.2162246441493945</v>
+        <v>0.1762048149060455</v>
       </c>
       <c r="G47" t="b">
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>0.3520216091979805</v>
+        <v>0.3099463166302689</v>
       </c>
       <c r="I47" t="n">
-        <v>1.196825443967698</v>
+        <v>1</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.2483044215716604</v>
+      </c>
+      <c r="L47" t="n">
+        <v>8.923204865241219</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.7346717607256604</v>
+      </c>
+      <c r="N47" t="n">
+        <v>5.770230349271989</v>
       </c>
     </row>
     <row r="48">
@@ -1911,25 +2626,40 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D48" t="n">
-        <v>4807144735.975529</v>
+        <v>5050350437.242534</v>
       </c>
       <c r="E48" t="n">
-        <v>0.004913119409870457</v>
+        <v>0.004633460584861609</v>
       </c>
       <c r="F48" t="n">
-        <v>0.3187636807629918</v>
+        <v>0.3023759220229065</v>
       </c>
       <c r="G48" t="b">
         <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>0.6657154190391589</v>
+        <v>0.672774566999042</v>
       </c>
       <c r="I48" t="n">
-        <v>1.473985020465481</v>
+        <v>15</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.2442759895526674</v>
+      </c>
+      <c r="L48" t="n">
+        <v>2.484125652775303</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.5291443608843281</v>
+      </c>
+      <c r="N48" t="n">
+        <v>8.098761564911261</v>
       </c>
     </row>
     <row r="49">
@@ -1942,25 +2672,40 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="D49" t="n">
-        <v>5382008882.080684</v>
+        <v>13083903267.3085</v>
       </c>
       <c r="E49" t="n">
-        <v>0.003272627013291664</v>
+        <v>0.001218675383278662</v>
       </c>
       <c r="F49" t="n">
-        <v>0.2141452430220501</v>
+        <v>0.08628595511102696</v>
       </c>
       <c r="G49" t="b">
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>0.345660175705263</v>
+        <v>0.05136807855264083</v>
       </c>
       <c r="I49" t="n">
-        <v>1.108638305991131</v>
+        <v>1</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0.3392114087631368</v>
+      </c>
+      <c r="L49" t="n">
+        <v>9.014111852432695</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0.741401800531275</v>
+      </c>
+      <c r="N49" t="n">
+        <v>5.813924158192805</v>
       </c>
     </row>
     <row r="50">
@@ -1973,25 +2718,40 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="D50" t="n">
-        <v>10086526495.65519</v>
+        <v>12998383750.77961</v>
       </c>
       <c r="E50" t="n">
-        <v>0.004131512628833012</v>
+        <v>0.003098710838858551</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1373770554805836</v>
+        <v>0.104990144633801</v>
       </c>
       <c r="G50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H50" t="n">
-        <v>0.1108061530832939</v>
+        <v>0.1051554195230929</v>
       </c>
       <c r="I50" t="n">
-        <v>1.332885599702974</v>
+        <v>14</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.988749361133924</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.3004559007215426</v>
+      </c>
+      <c r="L50" t="n">
+        <v>2.61892056676331</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.8399889231340566</v>
+      </c>
+      <c r="N50" t="n">
+        <v>14.18085789591782</v>
       </c>
     </row>
     <row r="51">
@@ -2004,25 +2764,40 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>477</v>
+        <v>514</v>
       </c>
       <c r="D51" t="n">
-        <v>10322554505.39606</v>
+        <v>5305699456.348727</v>
       </c>
       <c r="E51" t="n">
-        <v>0.002903440489956149</v>
+        <v>0.003893258485698142</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1210406812913274</v>
+        <v>0.2537585234664878</v>
       </c>
       <c r="G51" t="b">
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>0.06082889927184831</v>
+        <v>0.5329662855406844</v>
       </c>
       <c r="I51" t="n">
-        <v>1.201864708994931</v>
+        <v>1</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0.1070122309302951</v>
+      </c>
+      <c r="L51" t="n">
+        <v>8.781912674599853</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0.7844662480792863</v>
+      </c>
+      <c r="N51" t="n">
+        <v>6.907412286985872</v>
       </c>
     </row>
     <row r="52">
@@ -2035,25 +2810,40 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>535</v>
+        <v>428</v>
       </c>
       <c r="D52" t="n">
-        <v>10192666984.15614</v>
+        <v>6597747300.154678</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0032647394106087</v>
+        <v>0.002978364556538109</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1374884171314875</v>
+        <v>0.1699214700104863</v>
       </c>
       <c r="G52" t="b">
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>0.111146837584494</v>
+        <v>0.2918774014323721</v>
       </c>
       <c r="I52" t="n">
-        <v>1.348003394784671</v>
+        <v>2</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0.5331232883015293</v>
+      </c>
+      <c r="L52" t="n">
+        <v>6.667204218138464</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0.7224264029739528</v>
+      </c>
+      <c r="N52" t="n">
+        <v>7.781323841340592</v>
       </c>
     </row>
     <row r="53">
@@ -2066,25 +2856,40 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>455</v>
+        <v>528</v>
       </c>
       <c r="D53" t="n">
-        <v>7336516236.771626</v>
+        <v>13169633831.64864</v>
       </c>
       <c r="E53" t="n">
-        <v>0.001614771459233107</v>
+        <v>0.004748837903182749</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1624507343180708</v>
+        <v>0.1050171886082625</v>
       </c>
       <c r="G53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H53" t="n">
-        <v>0.1875131136811905</v>
+        <v>0.1052331894512572</v>
       </c>
       <c r="I53" t="n">
-        <v>1.146432793695374</v>
+        <v>15</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0.9895271247086365</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0.3047572047885917</v>
+      </c>
+      <c r="L53" t="n">
+        <v>2.544606868011227</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0.8334940035117712</v>
+      </c>
+      <c r="N53" t="n">
+        <v>14.12527320222419</v>
       </c>
     </row>
     <row r="54">
@@ -2097,25 +2902,40 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>553</v>
+        <v>608</v>
       </c>
       <c r="D54" t="n">
-        <v>10964234394.70291</v>
+        <v>8508887527.506209</v>
       </c>
       <c r="E54" t="n">
-        <v>0.004702064893980365</v>
+        <v>0.003825806088110311</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1321134351797346</v>
+        <v>0.1871677249054856</v>
       </c>
       <c r="G54" t="b">
         <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>0.09470335789171395</v>
+        <v>0.3414721829315217</v>
       </c>
       <c r="I54" t="n">
-        <v>1.393356780029763</v>
+        <v>15</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0.3030832669404825</v>
+      </c>
+      <c r="L54" t="n">
+        <v>2.542932930163118</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0.5577699561091425</v>
+      </c>
+      <c r="N54" t="n">
+        <v>8.612466192019731</v>
       </c>
     </row>
     <row r="55">
@@ -2128,25 +2948,40 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>567</v>
+        <v>505</v>
       </c>
       <c r="D55" t="n">
-        <v>10748895159.4376</v>
+        <v>12161849124.11415</v>
       </c>
       <c r="E55" t="n">
-        <v>0.001483566800546472</v>
+        <v>0.001561774962723762</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1381717942142165</v>
+        <v>0.1087656931524671</v>
       </c>
       <c r="G55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H55" t="n">
-        <v>0.1132374673360416</v>
+        <v>0.116012704479317</v>
       </c>
       <c r="I55" t="n">
-        <v>1.42863163522039</v>
+        <v>11</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0.3103756643516292</v>
+      </c>
+      <c r="L55" t="n">
+        <v>2.925956561200676</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0.576176353036746</v>
+      </c>
+      <c r="N55" t="n">
+        <v>8.597570499534243</v>
       </c>
     </row>
     <row r="56">
@@ -2159,25 +2994,40 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>586</v>
+        <v>478</v>
       </c>
       <c r="D56" t="n">
-        <v>5193594575.503572</v>
+        <v>5436122586.162416</v>
       </c>
       <c r="E56" t="n">
-        <v>0.001146718870240128</v>
+        <v>0.004915031371577813</v>
       </c>
       <c r="F56" t="n">
-        <v>0.2955491649733113</v>
+        <v>0.2303238015984269</v>
       </c>
       <c r="G56" t="b">
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>0.5946961258783978</v>
+        <v>0.4655754277796282</v>
       </c>
       <c r="I56" t="n">
-        <v>1.476504652979097</v>
+        <v>1</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0.2706123341327289</v>
+      </c>
+      <c r="L56" t="n">
+        <v>8.945512777802287</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0.7664786252410608</v>
+      </c>
+      <c r="N56" t="n">
+        <v>6.384059727018929</v>
       </c>
     </row>
     <row r="57">
@@ -2190,25 +3040,40 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>417</v>
+        <v>376</v>
       </c>
       <c r="D57" t="n">
-        <v>3965215987.579542</v>
+        <v>5998529273.125266</v>
       </c>
       <c r="E57" t="n">
-        <v>0.001892700453050512</v>
+        <v>0.002277044999587436</v>
       </c>
       <c r="F57" t="n">
-        <v>0.275466868241585</v>
+        <v>0.1641886861188671</v>
       </c>
       <c r="G57" t="b">
         <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>0.5332591124229692</v>
+        <v>0.275391725775964</v>
       </c>
       <c r="I57" t="n">
-        <v>1.050686758177958</v>
+        <v>2</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0.2437467094955434</v>
+      </c>
+      <c r="L57" t="n">
+        <v>6.377827639332478</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0.6901186640005431</v>
+      </c>
+      <c r="N57" t="n">
+        <v>7.424545640678383</v>
       </c>
     </row>
     <row r="58">
@@ -2221,25 +3086,40 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>435</v>
+        <v>618</v>
       </c>
       <c r="D58" t="n">
-        <v>5606426419.199067</v>
+        <v>5886572220.683814</v>
       </c>
       <c r="E58" t="n">
-        <v>0.003599858423189042</v>
+        <v>0.003210105022742737</v>
       </c>
       <c r="F58" t="n">
-        <v>0.2032372432639149</v>
+        <v>0.2749958650489391</v>
       </c>
       <c r="G58" t="b">
         <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>0.3122897431862751</v>
+        <v>0.5940381716873905</v>
       </c>
       <c r="I58" t="n">
-        <v>1.09604014342305</v>
+        <v>15</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0.9898138968238076</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0.4467841617176525</v>
+      </c>
+      <c r="L58" t="n">
+        <v>2.686633824940288</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0.9020370399356805</v>
+      </c>
+      <c r="N58" t="n">
+        <v>15.35410697377332</v>
       </c>
     </row>
     <row r="59">
@@ -2252,25 +3132,40 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>520</v>
+        <v>603</v>
       </c>
       <c r="D59" t="n">
-        <v>4107716724.360946</v>
+        <v>11234305214.13745</v>
       </c>
       <c r="E59" t="n">
-        <v>0.002381176626755057</v>
+        <v>0.001921373897318952</v>
       </c>
       <c r="F59" t="n">
-        <v>0.3315912199889842</v>
+        <v>0.1405954475949558</v>
       </c>
       <c r="G59" t="b">
         <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>0.704958226301453</v>
+        <v>0.2075450241833782</v>
       </c>
       <c r="I59" t="n">
-        <v>1.310208907080428</v>
+        <v>16</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0.4362656537458012</v>
+      </c>
+      <c r="L59" t="n">
+        <v>2.604990764663191</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0.5163722818808504</v>
+      </c>
+      <c r="N59" t="n">
+        <v>7.722454872953817</v>
       </c>
     </row>
     <row r="60">
@@ -2283,25 +3178,40 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>586</v>
+        <v>388</v>
       </c>
       <c r="D60" t="n">
-        <v>10316945427.33792</v>
+        <v>4502551149.214214</v>
       </c>
       <c r="E60" t="n">
-        <v>0.004383659442112248</v>
+        <v>0.004442299867078091</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1487807172007176</v>
+        <v>0.2257216600809452</v>
       </c>
       <c r="G60" t="b">
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>0.1456929455602818</v>
+        <v>0.4523411224549486</v>
       </c>
       <c r="I60" t="n">
-        <v>1.476504652979097</v>
+        <v>1</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0.04139375179483476</v>
+      </c>
+      <c r="L60" t="n">
+        <v>8.716294195464394</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0.7165854689084562</v>
+      </c>
+      <c r="N60" t="n">
+        <v>5.61541518270473</v>
       </c>
     </row>
     <row r="61">
@@ -2314,25 +3224,40 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>404</v>
+        <v>383</v>
       </c>
       <c r="D61" t="n">
-        <v>8096169981.89591</v>
+        <v>7471848807.76161</v>
       </c>
       <c r="E61" t="n">
-        <v>0.00241419510991461</v>
+        <v>0.002019913043639493</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1307079226802733</v>
+        <v>0.1342674879820732</v>
       </c>
       <c r="G61" t="b">
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>0.09040352647826987</v>
+        <v>0.1893478111509214</v>
       </c>
       <c r="I61" t="n">
-        <v>1.017931535500948</v>
+        <v>1</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0.07974133220210222</v>
+      </c>
+      <c r="L61" t="n">
+        <v>8.754641775871661</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0.7135666514075638</v>
+      </c>
+      <c r="N61" t="n">
+        <v>5.516691252279614</v>
       </c>
     </row>
     <row r="62">
@@ -2345,25 +3270,40 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="D62" t="n">
-        <v>7561087796.249205</v>
+        <v>3663162209.18821</v>
       </c>
       <c r="E62" t="n">
-        <v>0.003758092146377222</v>
+        <v>0.003771226796759389</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1991974290719318</v>
+        <v>0.4161663865651857</v>
       </c>
       <c r="G62" t="b">
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>0.2999308918962135</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
-        <v>1.448788695329319</v>
+        <v>1</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0.7127287748768524</v>
+      </c>
+      <c r="L62" t="n">
+        <v>9.387629218546412</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0.8160345089942843</v>
+      </c>
+      <c r="N62" t="n">
+        <v>6.933060961339276</v>
       </c>
     </row>
     <row r="63">
@@ -2376,25 +3316,40 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>561</v>
+        <v>596</v>
       </c>
       <c r="D63" t="n">
-        <v>5102533299.218681</v>
+        <v>8177697956.320395</v>
       </c>
       <c r="E63" t="n">
-        <v>0.001541526426544644</v>
+        <v>0.002427678262990123</v>
       </c>
       <c r="F63" t="n">
-        <v>0.2879898481456283</v>
+        <v>0.1909041454378259</v>
       </c>
       <c r="G63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H63" t="n">
-        <v>0.5715701928309838</v>
+        <v>0.3522169481584394</v>
       </c>
       <c r="I63" t="n">
-        <v>1.413513840138692</v>
+        <v>15</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0.9899701743821532</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0.5135782087080003</v>
+      </c>
+      <c r="L63" t="n">
+        <v>2.753427871930636</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0.8864991266972766</v>
+      </c>
+      <c r="N63" t="n">
+        <v>14.97655466201489</v>
       </c>
     </row>
     <row r="64">
@@ -2407,25 +3362,40 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>522</v>
+        <v>476</v>
       </c>
       <c r="D64" t="n">
-        <v>4259496274.285762</v>
+        <v>10676633415.28263</v>
       </c>
       <c r="E64" t="n">
-        <v>0.001804699437831559</v>
+        <v>0.004610314179341419</v>
       </c>
       <c r="F64" t="n">
-        <v>0.3210054644851812</v>
+        <v>0.1167811604559989</v>
       </c>
       <c r="G64" t="b">
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>0.6725736234838092</v>
+        <v>0.1390626565966027</v>
       </c>
       <c r="I64" t="n">
-        <v>1.31524817210766</v>
+        <v>1</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0.3847609455365925</v>
+      </c>
+      <c r="L64" t="n">
+        <v>9.059661389206152</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0.7654500572114449</v>
+      </c>
+      <c r="N64" t="n">
+        <v>6.249339755022746</v>
       </c>
     </row>
     <row r="65">
@@ -2438,25 +3408,40 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>461</v>
+        <v>383</v>
       </c>
       <c r="D65" t="n">
-        <v>4407568611.092056</v>
+        <v>9647833264.317295</v>
       </c>
       <c r="E65" t="n">
-        <v>0.00233644233676065</v>
+        <v>0.004978969050527762</v>
       </c>
       <c r="F65" t="n">
-        <v>0.2739693687265846</v>
+        <v>0.1039846297624621</v>
       </c>
       <c r="G65" t="b">
         <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>0.5286778686000339</v>
+        <v>0.1022638763653574</v>
       </c>
       <c r="I65" t="n">
-        <v>1.161550588777072</v>
+        <v>6</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0.06924835999024552</v>
+      </c>
+      <c r="L65" t="n">
+        <v>3.610761636062549</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0.6035368356448529</v>
+      </c>
+      <c r="N65" t="n">
+        <v>8.45997507683451</v>
       </c>
     </row>
     <row r="66">
@@ -2469,25 +3454,40 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="D66" t="n">
-        <v>7883809256.651063</v>
+        <v>3949762485.643597</v>
       </c>
       <c r="E66" t="n">
-        <v>0.001461693853076115</v>
+        <v>0.004938173837721294</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1561571646296984</v>
+        <v>0.3083771124028815</v>
       </c>
       <c r="G66" t="b">
         <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>0.1682594331489053</v>
+        <v>0.6900320949343365</v>
       </c>
       <c r="I66" t="n">
-        <v>1.184227281399617</v>
+        <v>1</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0.5605239361523563</v>
+      </c>
+      <c r="L66" t="n">
+        <v>9.235424379821914</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0.7597344324728462</v>
+      </c>
+      <c r="N66" t="n">
+        <v>5.95926426963501</v>
       </c>
     </row>
     <row r="67">
@@ -2500,25 +3500,40 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>459</v>
+        <v>385</v>
       </c>
       <c r="D67" t="n">
-        <v>5988174398.121506</v>
+        <v>9480787368.430355</v>
       </c>
       <c r="E67" t="n">
-        <v>0.004617733709396809</v>
+        <v>0.001302970660678709</v>
       </c>
       <c r="F67" t="n">
-        <v>0.2007790571993298</v>
+        <v>0.1063693457948485</v>
       </c>
       <c r="G67" t="b">
         <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>0.3047695072121063</v>
+        <v>0.1091215664136481</v>
       </c>
       <c r="I67" t="n">
-        <v>1.156511323749839</v>
+        <v>7</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0.1862495607038384</v>
+      </c>
+      <c r="L67" t="n">
+        <v>3.465053735302915</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0.5769160277914805</v>
+      </c>
+      <c r="N67" t="n">
+        <v>8.073266820526696</v>
       </c>
     </row>
     <row r="68">
@@ -2531,25 +3546,40 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>446</v>
+        <v>513</v>
       </c>
       <c r="D68" t="n">
-        <v>9888884239.429935</v>
+        <v>6568748660.692214</v>
       </c>
       <c r="E68" t="n">
-        <v>0.004903775497223803</v>
+        <v>0.002442647305339544</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1181374876795348</v>
+        <v>0.2045666746302935</v>
       </c>
       <c r="G68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H68" t="n">
-        <v>0.05194726848159939</v>
+        <v>0.391506066529446</v>
       </c>
       <c r="I68" t="n">
-        <v>1.123756101072829</v>
+        <v>12</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0.9851171500029997</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0.3147068557764119</v>
+      </c>
+      <c r="L68" t="n">
+        <v>2.818934908949323</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0.8565344555423027</v>
+      </c>
+      <c r="N68" t="n">
+        <v>14.31175420189673</v>
       </c>
     </row>
     <row r="69">
@@ -2562,25 +3592,40 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>544</v>
+        <v>470</v>
       </c>
       <c r="D69" t="n">
-        <v>5978152711.446626</v>
+        <v>7344762706.648938</v>
       </c>
       <c r="E69" t="n">
-        <v>0.001009454970858385</v>
+        <v>0.001473085525823155</v>
       </c>
       <c r="F69" t="n">
-        <v>0.2383592773184918</v>
+        <v>0.1676178454186844</v>
       </c>
       <c r="G69" t="b">
         <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>0.419737258160205</v>
+        <v>0.2852529047528289</v>
       </c>
       <c r="I69" t="n">
-        <v>1.370680087407217</v>
+        <v>1</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0.08114164213517597</v>
+      </c>
+      <c r="L69" t="n">
+        <v>8.756042085804735</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0.7623448427906837</v>
+      </c>
+      <c r="N69" t="n">
+        <v>6.490854770008939</v>
       </c>
     </row>
     <row r="70">
@@ -2593,25 +3638,40 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>507</v>
+        <v>403</v>
       </c>
       <c r="D70" t="n">
-        <v>6445064488.982472</v>
+        <v>7493853670.472202</v>
       </c>
       <c r="E70" t="n">
-        <v>0.002152856045830613</v>
+        <v>0.002059327837050325</v>
       </c>
       <c r="F70" t="n">
-        <v>0.2060539087343819</v>
+        <v>0.1408639955380239</v>
       </c>
       <c r="G70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>0.3209066616951596</v>
+        <v>0.2083172832413357</v>
       </c>
       <c r="I70" t="n">
-        <v>0.06988514084724304</v>
+        <v>1</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0.06589521834262357</v>
+      </c>
+      <c r="L70" t="n">
+        <v>8.740795662012182</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0.7254683199524246</v>
+      </c>
+      <c r="N70" t="n">
+        <v>5.76857073703631</v>
       </c>
     </row>
     <row r="71">
@@ -2624,25 +3684,40 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>417</v>
+        <v>573</v>
       </c>
       <c r="D71" t="n">
-        <v>4195154729.360029</v>
+        <v>10833333341.81516</v>
       </c>
       <c r="E71" t="n">
-        <v>0.004135454195375603</v>
+        <v>0.002557261864882081</v>
       </c>
       <c r="F71" t="n">
-        <v>0.2603683774416178</v>
+        <v>0.1385455817376813</v>
       </c>
       <c r="G71" t="b">
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>0.4870688686064437</v>
+        <v>0.2016502574695002</v>
       </c>
       <c r="I71" t="n">
-        <v>1.050686758177958</v>
+        <v>1</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0.8781069843706988</v>
+      </c>
+      <c r="L71" t="n">
+        <v>9.553007428040258</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0.8120186896904181</v>
+      </c>
+      <c r="N71" t="n">
+        <v>6.687366365768105</v>
       </c>
     </row>
     <row r="72">
@@ -2655,25 +3730,40 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>467</v>
+        <v>532</v>
       </c>
       <c r="D72" t="n">
-        <v>5470861004.791469</v>
+        <v>7374308628.03368</v>
       </c>
       <c r="E72" t="n">
-        <v>0.00148032754405016</v>
+        <v>0.001994795644767385</v>
       </c>
       <c r="F72" t="n">
-        <v>0.2235946277795494</v>
+        <v>0.1889689664875843</v>
       </c>
       <c r="G72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>0.3745683223304874</v>
+        <v>0.346651984763006</v>
       </c>
       <c r="I72" t="n">
-        <v>0.06067124790572307</v>
+        <v>1</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0.3187506104630226</v>
+      </c>
+      <c r="L72" t="n">
+        <v>8.993651054132581</v>
+      </c>
+      <c r="M72" t="n">
+        <v>0.7931102427234014</v>
+      </c>
+      <c r="N72" t="n">
+        <v>6.868553800335446</v>
       </c>
     </row>
     <row r="73">
@@ -2686,25 +3776,40 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>509</v>
+        <v>571</v>
       </c>
       <c r="D73" t="n">
-        <v>8335078731.351822</v>
+        <v>6759933626.55366</v>
       </c>
       <c r="E73" t="n">
-        <v>0.004150488471087899</v>
+        <v>0.003990783982156835</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1599588381792963</v>
+        <v>0.2212553809884848</v>
       </c>
       <c r="G73" t="b">
         <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>0.179889749747644</v>
+        <v>0.4394975145497322</v>
       </c>
       <c r="I73" t="n">
-        <v>1.282492949430649</v>
+        <v>13</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0.4909339833661079</v>
+      </c>
+      <c r="L73" t="n">
+        <v>2.896918472535024</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0.5817392622434117</v>
+      </c>
+      <c r="N73" t="n">
+        <v>8.737866772333209</v>
       </c>
     </row>
     <row r="74">
@@ -2717,25 +3822,40 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>453</v>
+        <v>388</v>
       </c>
       <c r="D74" t="n">
-        <v>5389113178.541691</v>
+        <v>5833136385.282586</v>
       </c>
       <c r="E74" t="n">
-        <v>0.001253580176352478</v>
+        <v>0.00196962289377296</v>
       </c>
       <c r="F74" t="n">
-        <v>0.2201816199972799</v>
+        <v>0.1742327373939439</v>
       </c>
       <c r="G74" t="b">
         <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>0.3641270362642624</v>
+        <v>0.3042752446260842</v>
       </c>
       <c r="I74" t="n">
-        <v>1.141393528668142</v>
+        <v>3</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0.1692360377066197</v>
+      </c>
+      <c r="L74" t="n">
+        <v>5.177692144052443</v>
+      </c>
+      <c r="M74" t="n">
+        <v>0.6779413746691707</v>
+      </c>
+      <c r="N74" t="n">
+        <v>8.381135349330972</v>
       </c>
     </row>
     <row r="75">
@@ -2748,25 +3868,40 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>568</v>
+        <v>396</v>
       </c>
       <c r="D75" t="n">
-        <v>4498940274.211326</v>
+        <v>11989597845.48679</v>
       </c>
       <c r="E75" t="n">
-        <v>0.002257239628741936</v>
+        <v>0.001746550265105777</v>
       </c>
       <c r="F75" t="n">
-        <v>0.3307031054687244</v>
+        <v>0.08651486508285681</v>
       </c>
       <c r="G75" t="b">
         <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>0.70224125102417</v>
+        <v>0.05202635132577315</v>
       </c>
       <c r="I75" t="n">
-        <v>1.431151267734006</v>
+        <v>1</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0.1726936799116815</v>
+      </c>
+      <c r="L75" t="n">
+        <v>8.84759412358124</v>
+      </c>
+      <c r="M75" t="n">
+        <v>0.7213547397120773</v>
+      </c>
+      <c r="N75" t="n">
+        <v>5.579500670660305</v>
       </c>
     </row>
     <row r="76">
@@ -2779,25 +3914,40 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>444</v>
+        <v>603</v>
       </c>
       <c r="D76" t="n">
-        <v>11497052013.36478</v>
+        <v>6863999884.077307</v>
       </c>
       <c r="E76" t="n">
-        <v>0.001551751745503338</v>
+        <v>0.002500517279637018</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1011571626055146</v>
+        <v>0.2301124995156266</v>
       </c>
       <c r="G76" t="b">
         <v>1</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>0.4649677897335364</v>
       </c>
       <c r="I76" t="n">
-        <v>0.0661871461996925</v>
+        <v>16</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0.9897805091015978</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0.2578249756104349</v>
+      </c>
+      <c r="L76" t="n">
+        <v>2.426550086527825</v>
+      </c>
+      <c r="M76" t="n">
+        <v>0.8803965471802639</v>
+      </c>
+      <c r="N76" t="n">
+        <v>15.18138085707745</v>
       </c>
     </row>
     <row r="77">
@@ -2810,25 +3960,40 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>520</v>
+        <v>459</v>
       </c>
       <c r="D77" t="n">
-        <v>7334473232.127934</v>
+        <v>6494242182.462221</v>
       </c>
       <c r="E77" t="n">
-        <v>0.003583660996018748</v>
+        <v>0.001640206356068186</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1857096967827943</v>
+        <v>0.1851332266675896</v>
       </c>
       <c r="G77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>0.2586683808796398</v>
+        <v>0.3356216086368023</v>
       </c>
       <c r="I77" t="n">
-        <v>0.09923263308074738</v>
+        <v>1</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0.1374391805008106</v>
+      </c>
+      <c r="L77" t="n">
+        <v>8.81233962417037</v>
+      </c>
+      <c r="M77" t="n">
+        <v>0.7565740545200406</v>
+      </c>
+      <c r="N77" t="n">
+        <v>6.319141466230441</v>
       </c>
     </row>
     <row r="78">
@@ -2841,25 +4006,40 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>478</v>
+        <v>458</v>
       </c>
       <c r="D78" t="n">
-        <v>6123974283.212019</v>
+        <v>11857085836.44077</v>
       </c>
       <c r="E78" t="n">
-        <v>0.002291478011280351</v>
+        <v>0.002681387335630043</v>
       </c>
       <c r="F78" t="n">
-        <v>0.2044535724835362</v>
+        <v>0.1011783701786979</v>
       </c>
       <c r="G78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>0.3160108133223443</v>
+        <v>0.09419396021637176</v>
       </c>
       <c r="I78" t="n">
-        <v>0.05621270529035557</v>
+        <v>1</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0.0632872528968952</v>
+      </c>
+      <c r="L78" t="n">
+        <v>8.738187696566454</v>
+      </c>
+      <c r="M78" t="n">
+        <v>0.7560443205265037</v>
+      </c>
+      <c r="N78" t="n">
+        <v>6.38269871396362</v>
       </c>
     </row>
     <row r="79">
@@ -2872,25 +4052,40 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>425</v>
+        <v>533</v>
       </c>
       <c r="D79" t="n">
-        <v>8717111463.158989</v>
+        <v>11670171398.14321</v>
       </c>
       <c r="E79" t="n">
-        <v>0.003928845664380482</v>
+        <v>0.002286660564860322</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1277075272818151</v>
+        <v>0.1196327647957367</v>
       </c>
       <c r="G79" t="b">
         <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>0.08122452992577585</v>
+        <v>0.1472629699407088</v>
       </c>
       <c r="I79" t="n">
-        <v>1.070843818286888</v>
+        <v>1</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K79" t="n">
+        <v>0.365173325936356</v>
+      </c>
+      <c r="L79" t="n">
+        <v>9.040073769605915</v>
+      </c>
+      <c r="M79" t="n">
+        <v>0.7935840576891668</v>
+      </c>
+      <c r="N79" t="n">
+        <v>6.831607384177422</v>
       </c>
     </row>
     <row r="80">
@@ -2903,25 +4098,40 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>462</v>
+        <v>562</v>
       </c>
       <c r="D80" t="n">
-        <v>10017685926.06675</v>
+        <v>8288877769.679108</v>
       </c>
       <c r="E80" t="n">
-        <v>0.002232241306376718</v>
+        <v>0.00240263065359294</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1208021681784892</v>
+        <v>0.1775990937379923</v>
       </c>
       <c r="G80" t="b">
         <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>0.06009922509570745</v>
+        <v>0.3139558221397427</v>
       </c>
       <c r="I80" t="n">
-        <v>1.164070221290688</v>
+        <v>1</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0.5219558866169458</v>
+      </c>
+      <c r="L80" t="n">
+        <v>9.196856330286504</v>
+      </c>
+      <c r="M80" t="n">
+        <v>0.8070466634197108</v>
+      </c>
+      <c r="N80" t="n">
+        <v>6.94407693810771</v>
       </c>
     </row>
     <row r="81">
@@ -2934,25 +4144,40 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>424</v>
+        <v>387</v>
       </c>
       <c r="D81" t="n">
-        <v>8204297524.887167</v>
+        <v>12488489260.91601</v>
       </c>
       <c r="E81" t="n">
-        <v>0.001917182933926802</v>
+        <v>0.001780150818363885</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1353706830634807</v>
+        <v>0.08117106151281954</v>
       </c>
       <c r="G81" t="b">
         <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>0.1046681335712421</v>
+        <v>0.03665926020692282</v>
       </c>
       <c r="I81" t="n">
-        <v>1.068324185773272</v>
+        <v>7</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0.2065796588510976</v>
+      </c>
+      <c r="L81" t="n">
+        <v>3.485383833450174</v>
+      </c>
+      <c r="M81" t="n">
+        <v>0.5789008183693793</v>
+      </c>
+      <c r="N81" t="n">
+        <v>8.092632533937413</v>
       </c>
     </row>
     <row r="82">
@@ -2965,25 +4190,40 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>438</v>
+        <v>496</v>
       </c>
       <c r="D82" t="n">
-        <v>6021597559.067327</v>
+        <v>10664269782.72779</v>
       </c>
       <c r="E82" t="n">
-        <v>0.003206823848763001</v>
+        <v>0.003856824950587691</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1905296408047737</v>
+        <v>0.1218290109374631</v>
       </c>
       <c r="G82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H82" t="n">
-        <v>0.2734138539541881</v>
+        <v>0.1535786801154931</v>
       </c>
       <c r="I82" t="n">
-        <v>0.06804557973115935</v>
+        <v>11</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0.2941358521968019</v>
+      </c>
+      <c r="L82" t="n">
+        <v>2.909716749045848</v>
+      </c>
+      <c r="M82" t="n">
+        <v>0.5670131943297072</v>
+      </c>
+      <c r="N82" t="n">
+        <v>8.430547137548295</v>
       </c>
     </row>
     <row r="83">
@@ -2996,25 +4236,40 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>437</v>
+        <v>568</v>
       </c>
       <c r="D83" t="n">
-        <v>4604901946.237446</v>
+        <v>13653128446.79973</v>
       </c>
       <c r="E83" t="n">
-        <v>0.001812576781077812</v>
+        <v>0.001074467946424377</v>
       </c>
       <c r="F83" t="n">
-        <v>0.2485771561184457</v>
+        <v>0.1089723520728131</v>
       </c>
       <c r="G83" t="b">
         <v>0</v>
       </c>
       <c r="H83" t="n">
-        <v>0.4509964296436623</v>
+        <v>0.116606990256827</v>
       </c>
       <c r="I83" t="n">
-        <v>1.101079408450283</v>
+        <v>17</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0.3853479951347295</v>
+      </c>
+      <c r="L83" t="n">
+        <v>2.489320396368088</v>
+      </c>
+      <c r="M83" t="n">
+        <v>0.4082468162431552</v>
+      </c>
+      <c r="N83" t="n">
+        <v>5.675615928495015</v>
       </c>
     </row>
     <row r="84">
@@ -3027,25 +4282,40 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>526</v>
+        <v>605</v>
       </c>
       <c r="D84" t="n">
-        <v>5586813334.71047</v>
+        <v>5319119862.491632</v>
       </c>
       <c r="E84" t="n">
-        <v>0.001655168646819171</v>
+        <v>0.002189648524973373</v>
       </c>
       <c r="F84" t="n">
-        <v>0.2466162832826063</v>
+        <v>0.2979310470468822</v>
       </c>
       <c r="G84" t="b">
         <v>0</v>
       </c>
       <c r="H84" t="n">
-        <v>0.4449976052856134</v>
+        <v>0.6599925105717722</v>
       </c>
       <c r="I84" t="n">
-        <v>1.325326702162125</v>
+        <v>26</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0.9909882648029879</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0.4107180052671182</v>
+      </c>
+      <c r="L84" t="n">
+        <v>2.11200595298811</v>
+      </c>
+      <c r="M84" t="n">
+        <v>0.7487865063830097</v>
+      </c>
+      <c r="N84" t="n">
+        <v>12.86372417467208</v>
       </c>
     </row>
     <row r="85">
@@ -3058,25 +4328,40 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D85" t="n">
-        <v>9667261085.645872</v>
+        <v>11658007957.04179</v>
       </c>
       <c r="E85" t="n">
-        <v>0.002764320414065716</v>
+        <v>0.002715974243362818</v>
       </c>
       <c r="F85" t="n">
-        <v>0.130871128729371</v>
+        <v>0.1078492315868208</v>
       </c>
       <c r="G85" t="b">
         <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>0.09090281659276087</v>
+        <v>0.1133772504994635</v>
       </c>
       <c r="I85" t="n">
-        <v>1.216982504076628</v>
+        <v>1</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0.09019599151185029</v>
+      </c>
+      <c r="L85" t="n">
+        <v>8.765096435181409</v>
+      </c>
+      <c r="M85" t="n">
+        <v>0.7675039826723122</v>
+      </c>
+      <c r="N85" t="n">
+        <v>6.584983218264835</v>
       </c>
     </row>
     <row r="86">
@@ -3089,25 +4374,40 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>514</v>
+        <v>589</v>
       </c>
       <c r="D86" t="n">
-        <v>7904948775.407686</v>
+        <v>8340425812.217276</v>
       </c>
       <c r="E86" t="n">
-        <v>0.003747675497186098</v>
+        <v>0.001306615275381153</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1703194414350349</v>
+        <v>0.1849810482985216</v>
       </c>
       <c r="G86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H86" t="n">
-        <v>0.2115855527791558</v>
+        <v>0.3351839917159825</v>
       </c>
       <c r="I86" t="n">
-        <v>1.295091111998731</v>
+        <v>15</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0.988273164675188</v>
+      </c>
+      <c r="K86" t="n">
+        <v>0.4377715141505289</v>
+      </c>
+      <c r="L86" t="n">
+        <v>2.677621177373164</v>
+      </c>
+      <c r="M86" t="n">
+        <v>0.8806550388391061</v>
+      </c>
+      <c r="N86" t="n">
+        <v>14.93547959940896</v>
       </c>
     </row>
     <row r="87">
@@ -3120,25 +4420,40 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>415</v>
+        <v>594</v>
       </c>
       <c r="D87" t="n">
-        <v>8602243104.030579</v>
+        <v>14010475410.52728</v>
       </c>
       <c r="E87" t="n">
-        <v>0.00213187991332115</v>
+        <v>0.001730716117933279</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1263678364879812</v>
+        <v>0.111053880358043</v>
       </c>
       <c r="G87" t="b">
         <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>0.07712606437542567</v>
+        <v>0.1225928081122855</v>
       </c>
       <c r="I87" t="n">
-        <v>1.045647493150726</v>
+        <v>16</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K87" t="n">
+        <v>0.2967861507735109</v>
+      </c>
+      <c r="L87" t="n">
+        <v>2.465511261690901</v>
+      </c>
+      <c r="M87" t="n">
+        <v>0.5044388446661257</v>
+      </c>
+      <c r="N87" t="n">
+        <v>7.623265631631613</v>
       </c>
     </row>
     <row r="88">
@@ -3151,25 +4466,40 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="D88" t="n">
-        <v>6432765512.357279</v>
+        <v>13460058642.888</v>
       </c>
       <c r="E88" t="n">
-        <v>0.004376081163326431</v>
+        <v>0.003298927118167436</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1828305582942067</v>
+        <v>0.08601525526129417</v>
       </c>
       <c r="G88" t="b">
         <v>0</v>
       </c>
       <c r="H88" t="n">
-        <v>0.2498603410211333</v>
+        <v>0.05058963129083888</v>
       </c>
       <c r="I88" t="n">
-        <v>1.131314998613677</v>
+        <v>1</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K88" t="n">
+        <v>0.2480176285071592</v>
+      </c>
+      <c r="L88" t="n">
+        <v>8.922918072176719</v>
+      </c>
+      <c r="M88" t="n">
+        <v>0.7474481954066933</v>
+      </c>
+      <c r="N88" t="n">
+        <v>6.026045835957147</v>
       </c>
     </row>
     <row r="89">
@@ -3182,25 +4512,40 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>509</v>
+        <v>578</v>
       </c>
       <c r="D89" t="n">
-        <v>7282755615.306152</v>
+        <v>4843518449.496622</v>
       </c>
       <c r="E89" t="n">
-        <v>0.002511555927821913</v>
+        <v>0.001280075440552624</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1830721200087876</v>
+        <v>0.312584216574492</v>
       </c>
       <c r="G89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H89" t="n">
-        <v>0.2505993416696786</v>
+        <v>0.7021303976328362</v>
       </c>
       <c r="I89" t="n">
-        <v>0.08786023467056826</v>
+        <v>14</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K89" t="n">
+        <v>0.3465704595441322</v>
+      </c>
+      <c r="L89" t="n">
+        <v>2.6650351255859</v>
+      </c>
+      <c r="M89" t="n">
+        <v>0.5579696434281376</v>
+      </c>
+      <c r="N89" t="n">
+        <v>8.494357742976851</v>
       </c>
     </row>
     <row r="90">
@@ -3213,25 +4558,40 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>456</v>
+        <v>431</v>
       </c>
       <c r="D90" t="n">
-        <v>8182914657.088478</v>
+        <v>6041440512.315969</v>
       </c>
       <c r="E90" t="n">
-        <v>0.00104923938025695</v>
+        <v>0.003534428900257333</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1459677743266344</v>
+        <v>0.1868688581305285</v>
       </c>
       <c r="G90" t="b">
         <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>0.1370874154502034</v>
+        <v>0.3406127364898682</v>
       </c>
       <c r="I90" t="n">
-        <v>1.148952426208991</v>
+        <v>1</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K90" t="n">
+        <v>0.5156608453688063</v>
+      </c>
+      <c r="L90" t="n">
+        <v>9.190561289038365</v>
+      </c>
+      <c r="M90" t="n">
+        <v>0.741401800531275</v>
+      </c>
+      <c r="N90" t="n">
+        <v>5.637474721587134</v>
       </c>
     </row>
     <row r="91">
@@ -3244,25 +4604,40 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>481</v>
+        <v>454</v>
       </c>
       <c r="D91" t="n">
-        <v>9920968468.313059</v>
+        <v>14081195814.28007</v>
       </c>
       <c r="E91" t="n">
-        <v>0.001304259300510288</v>
+        <v>0.001962726968511287</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1269963304514197</v>
+        <v>0.08445327198660224</v>
       </c>
       <c r="G91" t="b">
         <v>0</v>
       </c>
       <c r="H91" t="n">
-        <v>0.07904879226876589</v>
+        <v>0.0460978607768745</v>
       </c>
       <c r="I91" t="n">
-        <v>1.211943239049396</v>
+        <v>1</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K91" t="n">
+        <v>0.0377877268563677</v>
+      </c>
+      <c r="L91" t="n">
+        <v>8.712688170525926</v>
+      </c>
+      <c r="M91" t="n">
+        <v>0.7539166751304374</v>
+      </c>
+      <c r="N91" t="n">
+        <v>6.365645332082821</v>
       </c>
     </row>
     <row r="92">
@@ -3275,25 +4650,40 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>549</v>
+        <v>379</v>
       </c>
       <c r="D92" t="n">
-        <v>5562426773.254135</v>
+        <v>14508982562.63387</v>
       </c>
       <c r="E92" t="n">
-        <v>0.004153207347415489</v>
+        <v>0.002117266920926892</v>
       </c>
       <c r="F92" t="n">
-        <v>0.25852836695569</v>
+        <v>0.06842304797834031</v>
       </c>
       <c r="G92" t="b">
         <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>0.4814397938799717</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>1.383278249975298</v>
+        <v>6</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K92" t="n">
+        <v>0.128864271289646</v>
+      </c>
+      <c r="L92" t="n">
+        <v>3.67037754736195</v>
+      </c>
+      <c r="M92" t="n">
+        <v>0.5999243218088288</v>
+      </c>
+      <c r="N92" t="n">
+        <v>8.328108888814628</v>
       </c>
     </row>
     <row r="93">
@@ -3306,25 +4696,40 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>481</v>
+        <v>396</v>
       </c>
       <c r="D93" t="n">
-        <v>11115207530.48832</v>
+        <v>4917079660.787039</v>
       </c>
       <c r="E93" t="n">
-        <v>0.003862009272679614</v>
+        <v>0.001482920202852919</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1133516028867747</v>
+        <v>0.2109541662040047</v>
       </c>
       <c r="G93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H93" t="n">
-        <v>0.03730599152325121</v>
+        <v>0.4098744746768706</v>
       </c>
       <c r="I93" t="n">
-        <v>0.07154928925963373</v>
+        <v>1</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0.4213698921071654</v>
+      </c>
+      <c r="L93" t="n">
+        <v>9.096270335776724</v>
+      </c>
+      <c r="M93" t="n">
+        <v>0.7213547397120773</v>
+      </c>
+      <c r="N93" t="n">
+        <v>5.330824458464821</v>
       </c>
     </row>
     <row r="94">
@@ -3337,25 +4742,40 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>454</v>
+        <v>512</v>
       </c>
       <c r="D94" t="n">
-        <v>9057634137.422281</v>
+        <v>14142108553.27119</v>
       </c>
       <c r="E94" t="n">
-        <v>0.004689348671871648</v>
+        <v>0.001073756052684995</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1312929007682834</v>
+        <v>0.09483222922156016</v>
       </c>
       <c r="G94" t="b">
         <v>0</v>
       </c>
       <c r="H94" t="n">
-        <v>0.09219312789409967</v>
+        <v>0.07594446338078285</v>
       </c>
       <c r="I94" t="n">
-        <v>1.143913161181758</v>
+        <v>1</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K94" t="n">
+        <v>0.4811734120426803</v>
+      </c>
+      <c r="L94" t="n">
+        <v>9.15607385571224</v>
+      </c>
+      <c r="M94" t="n">
+        <v>0.7834919859157736</v>
+      </c>
+      <c r="N94" t="n">
+        <v>6.513765862603233</v>
       </c>
     </row>
     <row r="95">
@@ -3368,25 +4788,40 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>583</v>
+        <v>504</v>
       </c>
       <c r="D95" t="n">
-        <v>5869478802.00583</v>
+        <v>6528456841.90839</v>
       </c>
       <c r="E95" t="n">
-        <v>0.001191019939142208</v>
+        <v>0.002183530205805787</v>
       </c>
       <c r="F95" t="n">
-        <v>0.2601771676010021</v>
+        <v>0.2022181645630806</v>
       </c>
       <c r="G95" t="b">
         <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>0.4864839075480725</v>
+        <v>0.384752493400607</v>
       </c>
       <c r="I95" t="n">
-        <v>1.468945755438249</v>
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K95" t="n">
+        <v>0.4677559338858057</v>
+      </c>
+      <c r="L95" t="n">
+        <v>9.142656377555365</v>
+      </c>
+      <c r="M95" t="n">
+        <v>0.7795663847001268</v>
+      </c>
+      <c r="N95" t="n">
+        <v>6.448671316447172</v>
       </c>
     </row>
     <row r="96">
@@ -3399,25 +4834,40 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>595</v>
+        <v>578</v>
       </c>
       <c r="D96" t="n">
-        <v>5550767284.821083</v>
+        <v>11191719051.93769</v>
       </c>
       <c r="E96" t="n">
-        <v>0.002045385215249732</v>
+        <v>0.003703972865183998</v>
       </c>
       <c r="F96" t="n">
-        <v>0.2807786689710297</v>
+        <v>0.1352792554007036</v>
       </c>
       <c r="G96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H96" t="n">
-        <v>0.5495093041837497</v>
+        <v>0.1922573346596736</v>
       </c>
       <c r="I96" t="n">
-        <v>1.499181345601643</v>
+        <v>14</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K96" t="n">
+        <v>0.2872173311530527</v>
+      </c>
+      <c r="L96" t="n">
+        <v>2.60568199719482</v>
+      </c>
+      <c r="M96" t="n">
+        <v>0.5579696434281376</v>
+      </c>
+      <c r="N96" t="n">
+        <v>8.553710871367931</v>
       </c>
     </row>
     <row r="97">
@@ -3430,25 +4880,40 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>599</v>
+        <v>580</v>
       </c>
       <c r="D97" t="n">
-        <v>5301390403.288281</v>
+        <v>5240496838.061268</v>
       </c>
       <c r="E97" t="n">
-        <v>0.003263687175329887</v>
+        <v>0.001835714537144573</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2959628494869555</v>
+        <v>0.2899049931613065</v>
       </c>
       <c r="G97" t="b">
         <v>0</v>
       </c>
       <c r="H97" t="n">
-        <v>0.5959616953185162</v>
+        <v>0.6369121147885146</v>
       </c>
       <c r="I97" t="n">
-        <v>1.509259875656108</v>
+        <v>17</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K97" t="n">
+        <v>0.3893424659828884</v>
+      </c>
+      <c r="L97" t="n">
+        <v>2.493314867216247</v>
+      </c>
+      <c r="M97" t="n">
+        <v>0.4332118938350817</v>
+      </c>
+      <c r="N97" t="n">
+        <v>6.170923009485387</v>
       </c>
     </row>
     <row r="98">
@@ -3461,25 +4926,40 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>408</v>
+        <v>423</v>
       </c>
       <c r="D98" t="n">
-        <v>4218672064.929195</v>
+        <v>11988115442.27857</v>
       </c>
       <c r="E98" t="n">
-        <v>0.001715347788404721</v>
+        <v>0.001755445146982878</v>
       </c>
       <c r="F98" t="n">
-        <v>0.2533287972024289</v>
+        <v>0.0924250333870161</v>
       </c>
       <c r="G98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H98" t="n">
-        <v>0.465532946114453</v>
+        <v>0.06902212852218746</v>
       </c>
       <c r="I98" t="n">
-        <v>0.05925964621584053</v>
+        <v>1</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K98" t="n">
+        <v>0.1270455696404666</v>
+      </c>
+      <c r="L98" t="n">
+        <v>8.801946013310026</v>
+      </c>
+      <c r="M98" t="n">
+        <v>0.7369310635013457</v>
+      </c>
+      <c r="N98" t="n">
+        <v>5.936675256716889</v>
       </c>
     </row>
     <row r="99">
@@ -3492,25 +4972,40 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>533</v>
+        <v>417</v>
       </c>
       <c r="D99" t="n">
-        <v>9739778809.842684</v>
+        <v>5073346753.863902</v>
       </c>
       <c r="E99" t="n">
-        <v>0.004233064340437886</v>
+        <v>0.004987218711569141</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1433435909847474</v>
+        <v>0.2152988319136882</v>
       </c>
       <c r="G99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>0.1290593502623049</v>
+        <v>0.4223683609072706</v>
       </c>
       <c r="I99" t="n">
-        <v>0.08209882253460819</v>
+        <v>1</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K99" t="n">
+        <v>0.1941517126041738</v>
+      </c>
+      <c r="L99" t="n">
+        <v>8.869052156273733</v>
+      </c>
+      <c r="M99" t="n">
+        <v>0.7335360037995164</v>
+      </c>
+      <c r="N99" t="n">
+        <v>5.801667919716595</v>
       </c>
     </row>
     <row r="100">
@@ -3523,25 +5018,40 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>445</v>
+        <v>502</v>
       </c>
       <c r="D100" t="n">
-        <v>10573562977.38388</v>
+        <v>12205680680.63156</v>
       </c>
       <c r="E100" t="n">
-        <v>0.001900736546156981</v>
+        <v>0.002270177291117059</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1102399023388047</v>
+        <v>0.107731294501796</v>
       </c>
       <c r="G100" t="b">
         <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>0.02778648332213589</v>
+        <v>0.1130381006957487</v>
       </c>
       <c r="I100" t="n">
-        <v>1.121236468559212</v>
+        <v>15</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0.9899217813071578</v>
+      </c>
+      <c r="K100" t="n">
+        <v>0.2347860270563083</v>
+      </c>
+      <c r="L100" t="n">
+        <v>2.474635690278944</v>
+      </c>
+      <c r="M100" t="n">
+        <v>0.8112491187963763</v>
+      </c>
+      <c r="N100" t="n">
+        <v>13.75034668564858</v>
       </c>
     </row>
     <row r="101">
@@ -3554,25 +5064,40 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>649</v>
+        <v>604</v>
       </c>
       <c r="D101" t="n">
-        <v>3971616018.821275</v>
+        <v>5329243366.875924</v>
       </c>
       <c r="E101" t="n">
-        <v>0.004566768039588344</v>
+        <v>0.003169170035935485</v>
       </c>
       <c r="F101" t="n">
-        <v>0.4280333501385498</v>
+        <v>0.296873580559984</v>
       </c>
       <c r="G101" t="b">
         <v>0</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>0.6569515709776579</v>
       </c>
       <c r="I101" t="n">
-        <v>1.635241501336919</v>
+        <v>15</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K101" t="n">
+        <v>0.3839825516771457</v>
+      </c>
+      <c r="L101" t="n">
+        <v>2.623832214899781</v>
+      </c>
+      <c r="M101" t="n">
+        <v>0.5534183956463192</v>
+      </c>
+      <c r="N101" t="n">
+        <v>8.444535698026602</v>
       </c>
     </row>
   </sheetData>
